--- a/Splunk Training [23-27 Sept].xlsx
+++ b/Splunk Training [23-27 Sept].xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12ea3443da50b1a8/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{7F56F801-D2D9-4029-8FBE-3C6F39FF1DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06C75B62-30DB-4AD0-BE20-B5DB7B59AA97}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{7F56F801-D2D9-4029-8FBE-3C6F39FF1DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{346D3972-5F1B-404F-893D-3D2A947219D3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{77825AB2-8D24-4A70-9960-6A02CCD60701}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>SI.No</t>
   </si>
@@ -142,6 +142,18 @@
   </si>
   <si>
     <t>user14</t>
+  </si>
+  <si>
+    <t>Chandrashekar S</t>
+  </si>
+  <si>
+    <t>Indiver Jamwal</t>
+  </si>
+  <si>
+    <t>user15</t>
+  </si>
+  <si>
+    <t>user16</t>
   </si>
 </sst>
 </file>
@@ -198,7 +210,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -221,11 +233,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -254,7 +277,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -270,6 +297,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -592,7 +623,7 @@
   <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -859,17 +890,51 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F17" r:id="rId1" xr:uid="{FB1BBAD2-C29F-478D-968C-C3659AB82623}"/>
+    <hyperlink ref="F18" r:id="rId2" xr:uid="{B7889E67-4067-416F-9659-3AA5D5218CBE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Splunk Training [23-27 Sept].xlsx
+++ b/Splunk Training [23-27 Sept].xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12ea3443da50b1a8/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{7F56F801-D2D9-4029-8FBE-3C6F39FF1DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{346D3972-5F1B-404F-893D-3D2A947219D3}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="8_{7F56F801-D2D9-4029-8FBE-3C6F39FF1DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3163D7A6-9A31-44A4-98F1-078046731C89}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{77825AB2-8D24-4A70-9960-6A02CCD60701}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
   <si>
     <t>SI.No</t>
   </si>
@@ -154,13 +154,103 @@
   </si>
   <si>
     <t>user16</t>
+  </si>
+  <si>
+    <t>Server1</t>
+  </si>
+  <si>
+    <t>Server2</t>
+  </si>
+  <si>
+    <t>18.221.101.129</t>
+  </si>
+  <si>
+    <t>3.129.248.182</t>
+  </si>
+  <si>
+    <t>18.217.240.14</t>
+  </si>
+  <si>
+    <t>18.217.110.201</t>
+  </si>
+  <si>
+    <t>3.15.162.118</t>
+  </si>
+  <si>
+    <t>18.117.122.218</t>
+  </si>
+  <si>
+    <t>3.145.195.54</t>
+  </si>
+  <si>
+    <t>3.23.114.127</t>
+  </si>
+  <si>
+    <t>3.144.220.56</t>
+  </si>
+  <si>
+    <t>18.223.155.55</t>
+  </si>
+  <si>
+    <t>3.21.204.252</t>
+  </si>
+  <si>
+    <t>3.143.208.53</t>
+  </si>
+  <si>
+    <t>18.218.52.74</t>
+  </si>
+  <si>
+    <t>18.191.184.170</t>
+  </si>
+  <si>
+    <t>18.117.160.55</t>
+  </si>
+  <si>
+    <t>3.15.184.25</t>
+  </si>
+  <si>
+    <t>3.144.221.193</t>
+  </si>
+  <si>
+    <t>3.129.6.133</t>
+  </si>
+  <si>
+    <t>3.140.193.76</t>
+  </si>
+  <si>
+    <t>18.117.236.94</t>
+  </si>
+  <si>
+    <t>18.188.106.184</t>
+  </si>
+  <si>
+    <t>18.220.222.184</t>
+  </si>
+  <si>
+    <t>3.142.145.106</t>
+  </si>
+  <si>
+    <t>13.58.83.220</t>
+  </si>
+  <si>
+    <t>3.21.237.197</t>
+  </si>
+  <si>
+    <t>18.118.168.205</t>
+  </si>
+  <si>
+    <t>3.129.89.40</t>
+  </si>
+  <si>
+    <t>18.221.189.6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +278,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -248,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -278,10 +374,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E08C493-A7BD-4A12-A1EC-4ABC348CA789}">
-  <dimension ref="B2:F19"/>
+  <dimension ref="B2:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -635,7 +735,7 @@
     <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -651,8 +751,14 @@
       <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
         <v>1</v>
       </c>
@@ -668,8 +774,14 @@
       <c r="F3" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8">
         <v>2</v>
       </c>
@@ -685,8 +797,14 @@
       <c r="F4" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
         <v>3</v>
       </c>
@@ -702,8 +820,14 @@
       <c r="F5" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8">
         <v>4</v>
       </c>
@@ -719,8 +843,14 @@
       <c r="F6" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>5</v>
       </c>
@@ -736,8 +866,14 @@
       <c r="F7" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8">
         <v>6</v>
       </c>
@@ -753,8 +889,14 @@
       <c r="F8" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>7</v>
       </c>
@@ -770,8 +912,14 @@
       <c r="F9" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8">
         <v>8</v>
       </c>
@@ -787,8 +935,14 @@
       <c r="F10" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>9</v>
       </c>
@@ -804,8 +958,14 @@
       <c r="F11" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8">
         <v>10</v>
       </c>
@@ -821,8 +981,14 @@
       <c r="F12" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>11</v>
       </c>
@@ -838,8 +1004,14 @@
       <c r="F13" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8">
         <v>12</v>
       </c>
@@ -855,8 +1027,14 @@
       <c r="F14" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <v>13</v>
       </c>
@@ -872,8 +1050,14 @@
       <c r="F15" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8">
         <v>14</v>
       </c>
@@ -889,8 +1073,14 @@
       <c r="F16" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -906,8 +1096,10 @@
       <c r="F17" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -924,7 +1116,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
     </row>

--- a/Splunk Training [23-27 Sept].xlsx
+++ b/Splunk Training [23-27 Sept].xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12ea3443da50b1a8/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="8_{7F56F801-D2D9-4029-8FBE-3C6F39FF1DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3163D7A6-9A31-44A4-98F1-078046731C89}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="8_{7F56F801-D2D9-4029-8FBE-3C6F39FF1DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A1BB481-1D75-47CD-AC37-E0C9CF233436}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{77825AB2-8D24-4A70-9960-6A02CCD60701}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="100">
   <si>
     <t>SI.No</t>
   </si>
@@ -156,94 +156,184 @@
     <t>user16</t>
   </si>
   <si>
-    <t>Server1</t>
-  </si>
-  <si>
     <t>Server2</t>
   </si>
   <si>
-    <t>18.221.101.129</t>
-  </si>
-  <si>
-    <t>3.129.248.182</t>
-  </si>
-  <si>
-    <t>18.217.240.14</t>
-  </si>
-  <si>
-    <t>18.217.110.201</t>
-  </si>
-  <si>
-    <t>3.15.162.118</t>
-  </si>
-  <si>
-    <t>18.117.122.218</t>
-  </si>
-  <si>
-    <t>3.145.195.54</t>
-  </si>
-  <si>
-    <t>3.23.114.127</t>
-  </si>
-  <si>
-    <t>3.144.220.56</t>
-  </si>
-  <si>
-    <t>18.223.155.55</t>
-  </si>
-  <si>
-    <t>3.21.204.252</t>
-  </si>
-  <si>
-    <t>3.143.208.53</t>
-  </si>
-  <si>
-    <t>18.218.52.74</t>
-  </si>
-  <si>
-    <t>18.191.184.170</t>
-  </si>
-  <si>
-    <t>18.117.160.55</t>
-  </si>
-  <si>
-    <t>3.15.184.25</t>
-  </si>
-  <si>
-    <t>3.144.221.193</t>
-  </si>
-  <si>
-    <t>3.129.6.133</t>
-  </si>
-  <si>
-    <t>3.140.193.76</t>
-  </si>
-  <si>
-    <t>18.117.236.94</t>
-  </si>
-  <si>
-    <t>18.188.106.184</t>
-  </si>
-  <si>
-    <t>18.220.222.184</t>
-  </si>
-  <si>
-    <t>3.142.145.106</t>
-  </si>
-  <si>
-    <t>13.58.83.220</t>
-  </si>
-  <si>
-    <t>3.21.237.197</t>
-  </si>
-  <si>
-    <t>18.118.168.205</t>
-  </si>
-  <si>
-    <t>3.129.89.40</t>
-  </si>
-  <si>
-    <t>18.221.189.6</t>
+    <t>server1</t>
+  </si>
+  <si>
+    <t>Server3</t>
+  </si>
+  <si>
+    <t>13.233.190.220</t>
+  </si>
+  <si>
+    <t>13.235.95.239</t>
+  </si>
+  <si>
+    <t>15.206.145.53</t>
+  </si>
+  <si>
+    <t>3.110.83.51</t>
+  </si>
+  <si>
+    <t>13.233.9.69</t>
+  </si>
+  <si>
+    <t>43.205.94.143</t>
+  </si>
+  <si>
+    <t>13.200.251.120</t>
+  </si>
+  <si>
+    <t>13.201.125.81</t>
+  </si>
+  <si>
+    <t>3.110.182.73</t>
+  </si>
+  <si>
+    <t>13.201.119.11</t>
+  </si>
+  <si>
+    <t>15.206.100.36</t>
+  </si>
+  <si>
+    <t>65.0.95.198</t>
+  </si>
+  <si>
+    <t>43.205.233.216</t>
+  </si>
+  <si>
+    <t>13.201.38.152</t>
+  </si>
+  <si>
+    <t>13.201.88.208</t>
+  </si>
+  <si>
+    <t>65.1.131.139</t>
+  </si>
+  <si>
+    <t>65.0.182.153</t>
+  </si>
+  <si>
+    <t>43.205.253.125</t>
+  </si>
+  <si>
+    <t>13.201.10.105</t>
+  </si>
+  <si>
+    <t>35.154.175.161</t>
+  </si>
+  <si>
+    <t>3.108.184.200</t>
+  </si>
+  <si>
+    <t>13.201.49.72</t>
+  </si>
+  <si>
+    <t>13.201.41.147</t>
+  </si>
+  <si>
+    <t>13.201.26.252</t>
+  </si>
+  <si>
+    <t>13.127.100.175</t>
+  </si>
+  <si>
+    <t>13.233.141.230</t>
+  </si>
+  <si>
+    <t>52.66.206.35</t>
+  </si>
+  <si>
+    <t>65.2.137.97</t>
+  </si>
+  <si>
+    <t>13.234.116.38</t>
+  </si>
+  <si>
+    <t>13.201.37.98</t>
+  </si>
+  <si>
+    <t>13.201.48.149</t>
+  </si>
+  <si>
+    <t>13.232.230.110</t>
+  </si>
+  <si>
+    <t>13.232.138.233</t>
+  </si>
+  <si>
+    <t>15.206.169.200</t>
+  </si>
+  <si>
+    <t>3.110.214.150</t>
+  </si>
+  <si>
+    <t>3.108.41.91</t>
+  </si>
+  <si>
+    <t>35.154.94.1</t>
+  </si>
+  <si>
+    <t>3.110.179.199</t>
+  </si>
+  <si>
+    <t>43.205.198.52</t>
+  </si>
+  <si>
+    <t>13.233.141.205</t>
+  </si>
+  <si>
+    <t>15.206.170.64</t>
+  </si>
+  <si>
+    <t>13.233.138.24</t>
+  </si>
+  <si>
+    <t>3.110.131.81</t>
+  </si>
+  <si>
+    <t>13.126.51.89</t>
+  </si>
+  <si>
+    <t>65.2.144.156</t>
+  </si>
+  <si>
+    <t>3.108.221.150</t>
+  </si>
+  <si>
+    <t>43.205.236.206</t>
+  </si>
+  <si>
+    <t>52.66.96.145</t>
+  </si>
+  <si>
+    <t>3.110.131.219</t>
+  </si>
+  <si>
+    <t>13.232.69.176</t>
+  </si>
+  <si>
+    <t>13.127.120.255</t>
+  </si>
+  <si>
+    <t>43.205.229.105</t>
+  </si>
+  <si>
+    <t>13.127.145.236</t>
+  </si>
+  <si>
+    <t>3.110.215.167</t>
+  </si>
+  <si>
+    <t>13.127.247.156</t>
+  </si>
+  <si>
+    <t>13.201.55.199</t>
+  </si>
+  <si>
+    <t>Server4</t>
   </si>
 </sst>
 </file>
@@ -306,7 +396,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -340,11 +430,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -378,10 +481,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -720,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E08C493-A7BD-4A12-A1EC-4ABC348CA789}">
-  <dimension ref="B2:H19"/>
+  <dimension ref="B2:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -735,7 +840,7 @@
     <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -751,14 +856,20 @@
       <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
         <v>1</v>
       </c>
@@ -774,14 +885,20 @@
       <c r="F3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="14" t="s">
+      <c r="G3" s="16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8">
         <v>2</v>
       </c>
@@ -797,14 +914,20 @@
       <c r="F4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
         <v>3</v>
       </c>
@@ -820,14 +943,20 @@
       <c r="F5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8">
         <v>4</v>
       </c>
@@ -843,14 +972,20 @@
       <c r="F6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>5</v>
       </c>
@@ -866,14 +1001,20 @@
       <c r="F7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8">
         <v>6</v>
       </c>
@@ -889,14 +1030,20 @@
       <c r="F8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>7</v>
       </c>
@@ -912,14 +1059,20 @@
       <c r="F9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8">
         <v>8</v>
       </c>
@@ -935,14 +1088,20 @@
       <c r="F10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>9</v>
       </c>
@@ -958,14 +1117,20 @@
       <c r="F11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8">
         <v>10</v>
       </c>
@@ -981,14 +1146,20 @@
       <c r="F12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>11</v>
       </c>
@@ -1004,14 +1175,20 @@
       <c r="F13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8">
         <v>12</v>
       </c>
@@ -1027,14 +1204,20 @@
       <c r="F14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <v>13</v>
       </c>
@@ -1050,14 +1233,20 @@
       <c r="F15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8">
         <v>14</v>
       </c>
@@ -1073,11 +1262,17 @@
       <c r="F16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>69</v>
+      <c r="G16" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
@@ -1087,17 +1282,17 @@
       <c r="C17" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="14" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+      <c r="F17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="1">

--- a/Splunk Training [23-27 Sept].xlsx
+++ b/Splunk Training [23-27 Sept].xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12ea3443da50b1a8/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="8_{7F56F801-D2D9-4029-8FBE-3C6F39FF1DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A1BB481-1D75-47CD-AC37-E0C9CF233436}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="8_{7F56F801-D2D9-4029-8FBE-3C6F39FF1DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEB043D6-D8CE-42CA-A78D-20A5FCA39F5F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{77825AB2-8D24-4A70-9960-6A02CCD60701}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
   <si>
     <t>SI.No</t>
   </si>
@@ -162,178 +162,88 @@
     <t>server1</t>
   </si>
   <si>
-    <t>Server3</t>
-  </si>
-  <si>
-    <t>13.233.190.220</t>
-  </si>
-  <si>
-    <t>13.235.95.239</t>
-  </si>
-  <si>
-    <t>15.206.145.53</t>
-  </si>
-  <si>
-    <t>3.110.83.51</t>
-  </si>
-  <si>
-    <t>13.233.9.69</t>
-  </si>
-  <si>
-    <t>43.205.94.143</t>
-  </si>
-  <si>
-    <t>13.200.251.120</t>
-  </si>
-  <si>
-    <t>13.201.125.81</t>
-  </si>
-  <si>
-    <t>3.110.182.73</t>
-  </si>
-  <si>
-    <t>13.201.119.11</t>
-  </si>
-  <si>
-    <t>15.206.100.36</t>
-  </si>
-  <si>
-    <t>65.0.95.198</t>
-  </si>
-  <si>
-    <t>43.205.233.216</t>
-  </si>
-  <si>
-    <t>13.201.38.152</t>
-  </si>
-  <si>
-    <t>13.201.88.208</t>
-  </si>
-  <si>
-    <t>65.1.131.139</t>
-  </si>
-  <si>
-    <t>65.0.182.153</t>
-  </si>
-  <si>
-    <t>43.205.253.125</t>
-  </si>
-  <si>
-    <t>13.201.10.105</t>
-  </si>
-  <si>
-    <t>35.154.175.161</t>
-  </si>
-  <si>
-    <t>3.108.184.200</t>
-  </si>
-  <si>
-    <t>13.201.49.72</t>
-  </si>
-  <si>
-    <t>13.201.41.147</t>
-  </si>
-  <si>
-    <t>13.201.26.252</t>
-  </si>
-  <si>
-    <t>13.127.100.175</t>
-  </si>
-  <si>
-    <t>13.233.141.230</t>
-  </si>
-  <si>
-    <t>52.66.206.35</t>
-  </si>
-  <si>
-    <t>65.2.137.97</t>
-  </si>
-  <si>
-    <t>13.234.116.38</t>
-  </si>
-  <si>
-    <t>13.201.37.98</t>
-  </si>
-  <si>
-    <t>13.201.48.149</t>
-  </si>
-  <si>
-    <t>13.232.230.110</t>
-  </si>
-  <si>
-    <t>13.232.138.233</t>
-  </si>
-  <si>
-    <t>15.206.169.200</t>
-  </si>
-  <si>
-    <t>3.110.214.150</t>
-  </si>
-  <si>
-    <t>3.108.41.91</t>
-  </si>
-  <si>
-    <t>35.154.94.1</t>
-  </si>
-  <si>
-    <t>3.110.179.199</t>
-  </si>
-  <si>
-    <t>43.205.198.52</t>
-  </si>
-  <si>
-    <t>13.233.141.205</t>
-  </si>
-  <si>
-    <t>15.206.170.64</t>
-  </si>
-  <si>
-    <t>13.233.138.24</t>
-  </si>
-  <si>
-    <t>3.110.131.81</t>
-  </si>
-  <si>
-    <t>13.126.51.89</t>
-  </si>
-  <si>
-    <t>65.2.144.156</t>
-  </si>
-  <si>
-    <t>3.108.221.150</t>
-  </si>
-  <si>
-    <t>43.205.236.206</t>
-  </si>
-  <si>
-    <t>52.66.96.145</t>
-  </si>
-  <si>
-    <t>3.110.131.219</t>
-  </si>
-  <si>
-    <t>13.232.69.176</t>
-  </si>
-  <si>
-    <t>13.127.120.255</t>
-  </si>
-  <si>
-    <t>43.205.229.105</t>
-  </si>
-  <si>
-    <t>13.127.145.236</t>
-  </si>
-  <si>
-    <t>3.110.215.167</t>
-  </si>
-  <si>
-    <t>13.127.247.156</t>
-  </si>
-  <si>
-    <t>13.201.55.199</t>
-  </si>
-  <si>
-    <t>Server4</t>
+    <t>13.201.1.198</t>
+  </si>
+  <si>
+    <t>3.110.128.223</t>
+  </si>
+  <si>
+    <t>13.235.17.88</t>
+  </si>
+  <si>
+    <t>3.6.40.81</t>
+  </si>
+  <si>
+    <t>15.206.172.139</t>
+  </si>
+  <si>
+    <t>3.110.31.5</t>
+  </si>
+  <si>
+    <t>13.127.192.26</t>
+  </si>
+  <si>
+    <t>13.201.127.51</t>
+  </si>
+  <si>
+    <t>65.0.95.15</t>
+  </si>
+  <si>
+    <t>13.235.245.153</t>
+  </si>
+  <si>
+    <t>65.2.152.31</t>
+  </si>
+  <si>
+    <t>13.126.96.207</t>
+  </si>
+  <si>
+    <t>35.154.105.193</t>
+  </si>
+  <si>
+    <t>13.232.234.92</t>
+  </si>
+  <si>
+    <t>35.154.13.128</t>
+  </si>
+  <si>
+    <t>3.109.185.43</t>
+  </si>
+  <si>
+    <t>13.235.95.72</t>
+  </si>
+  <si>
+    <t>13.235.114.48</t>
+  </si>
+  <si>
+    <t>3.110.81.27</t>
+  </si>
+  <si>
+    <t>13.127.62.102</t>
+  </si>
+  <si>
+    <t>13.233.216.122</t>
+  </si>
+  <si>
+    <t>13.234.114.40</t>
+  </si>
+  <si>
+    <t>13.232.69.175</t>
+  </si>
+  <si>
+    <t>3.109.216.204</t>
+  </si>
+  <si>
+    <t>15.206.124.151</t>
+  </si>
+  <si>
+    <t>13.201.123.4</t>
+  </si>
+  <si>
+    <t>3.111.198.13</t>
+  </si>
+  <si>
+    <t>65.2.152.235</t>
   </si>
 </sst>
 </file>
@@ -447,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -486,7 +396,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -825,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E08C493-A7BD-4A12-A1EC-4ABC348CA789}">
-  <dimension ref="B2:J19"/>
+  <dimension ref="B2:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -840,7 +749,7 @@
     <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -862,14 +771,8 @@
       <c r="H2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
         <v>1</v>
       </c>
@@ -885,20 +788,14 @@
       <c r="F3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8">
         <v>2</v>
       </c>
@@ -914,20 +811,14 @@
       <c r="F4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
         <v>3</v>
       </c>
@@ -943,20 +834,14 @@
       <c r="F5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8">
         <v>4</v>
       </c>
@@ -972,20 +857,14 @@
       <c r="F6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>5</v>
       </c>
@@ -1001,20 +880,14 @@
       <c r="F7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8">
         <v>6</v>
       </c>
@@ -1030,20 +903,14 @@
       <c r="F8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>7</v>
       </c>
@@ -1059,20 +926,14 @@
       <c r="F9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8">
         <v>8</v>
       </c>
@@ -1088,20 +949,14 @@
       <c r="F10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>9</v>
       </c>
@@ -1117,20 +972,14 @@
       <c r="F11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8">
         <v>10</v>
       </c>
@@ -1146,20 +995,14 @@
       <c r="F12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>11</v>
       </c>
@@ -1175,20 +1018,14 @@
       <c r="F13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8">
         <v>12</v>
       </c>
@@ -1204,20 +1041,14 @@
       <c r="F14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <v>13</v>
       </c>
@@ -1233,20 +1064,14 @@
       <c r="F15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8">
         <v>14</v>
       </c>
@@ -1262,17 +1087,11 @@
       <c r="F16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>98</v>
+      <c r="G16" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">

--- a/Splunk Training [23-27 Sept].xlsx
+++ b/Splunk Training [23-27 Sept].xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12ea3443da50b1a8/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="8_{7F56F801-D2D9-4029-8FBE-3C6F39FF1DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEB043D6-D8CE-42CA-A78D-20A5FCA39F5F}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="8_{7F56F801-D2D9-4029-8FBE-3C6F39FF1DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00950C0A-DE22-4CED-B7DF-C9BEBDA9BE9F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{77825AB2-8D24-4A70-9960-6A02CCD60701}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
   <si>
     <t>SI.No</t>
   </si>
@@ -244,6 +244,51 @@
   </si>
   <si>
     <t>65.2.152.235</t>
+  </si>
+  <si>
+    <t>server3</t>
+  </si>
+  <si>
+    <t>13.127.183.236</t>
+  </si>
+  <si>
+    <t>3.6.94.118</t>
+  </si>
+  <si>
+    <t>13.201.63.178</t>
+  </si>
+  <si>
+    <t>43.205.208.81</t>
+  </si>
+  <si>
+    <t>3.110.214.199</t>
+  </si>
+  <si>
+    <t>13.201.90.70</t>
+  </si>
+  <si>
+    <t>65.1.135.192</t>
+  </si>
+  <si>
+    <t>13.126.242.36</t>
+  </si>
+  <si>
+    <t>13.233.17.29</t>
+  </si>
+  <si>
+    <t>15.206.68.190</t>
+  </si>
+  <si>
+    <t>65.1.1.83</t>
+  </si>
+  <si>
+    <t>15.206.157.147</t>
+  </si>
+  <si>
+    <t>13.232.142.149</t>
+  </si>
+  <si>
+    <t>65.0.17.37</t>
   </si>
 </sst>
 </file>
@@ -357,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -396,6 +441,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E08C493-A7BD-4A12-A1EC-4ABC348CA789}">
-  <dimension ref="B2:H19"/>
+  <dimension ref="B2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -749,7 +797,7 @@
     <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -771,8 +819,11 @@
       <c r="H2" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
         <v>1</v>
       </c>
@@ -794,8 +845,11 @@
       <c r="H3" s="13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8">
         <v>2</v>
       </c>
@@ -817,8 +871,11 @@
       <c r="H4" s="13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
         <v>3</v>
       </c>
@@ -840,8 +897,11 @@
       <c r="H5" s="13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I5" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8">
         <v>4</v>
       </c>
@@ -863,8 +923,11 @@
       <c r="H6" s="13" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>5</v>
       </c>
@@ -886,8 +949,11 @@
       <c r="H7" s="13" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8">
         <v>6</v>
       </c>
@@ -909,8 +975,11 @@
       <c r="H8" s="13" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>7</v>
       </c>
@@ -932,8 +1001,11 @@
       <c r="H9" s="13" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8">
         <v>8</v>
       </c>
@@ -955,8 +1027,11 @@
       <c r="H10" s="13" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>9</v>
       </c>
@@ -978,8 +1053,11 @@
       <c r="H11" s="13" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8">
         <v>10</v>
       </c>
@@ -1001,8 +1079,11 @@
       <c r="H12" s="13" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>11</v>
       </c>
@@ -1024,8 +1105,11 @@
       <c r="H13" s="13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8">
         <v>12</v>
       </c>
@@ -1047,8 +1131,11 @@
       <c r="H14" s="13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <v>13</v>
       </c>
@@ -1070,8 +1157,11 @@
       <c r="H15" s="13" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8">
         <v>14</v>
       </c>
@@ -1092,6 +1182,9 @@
       </c>
       <c r="H16" s="13" t="s">
         <v>69</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
